--- a/Assignment/Module_3/Time_Test_Cases.xlsx
+++ b/Assignment/Module_3/Time_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tops_MyWork\Assignment\Module_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tops_My_Work\Assignment\Module_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F9D517-BAA1-4ABF-9F28-7D5511B73A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89357E07-D75B-49B2-9F85-7911CC84E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF867977-D978-4FEA-8A65-A6762BEB2696}"/>
   </bookViews>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3785EF-3785-4902-BB4B-81B7451236A2}">
   <dimension ref="A2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
